--- a/biology/Zoologie/Bachia/Bachia.xlsx
+++ b/biology/Zoologie/Bachia/Bachia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bachia, unique représentant de la sous-famille des Bachiinae, est un genre de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bachia, unique représentant de la sous-famille des Bachiinae, est un genre de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 31 espèces de ce genre se rencontrent en Amérique du Sud et dans le sud de l'Amérique centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 31 espèces de ce genre se rencontrent en Amérique du Sud et dans le sud de l'Amérique centrale.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des reptiles diurnes et ovipares assez petits, aux pattes petites voire atrophiées[réf. nécessaire].
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (28 mars 2020)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (28 mars 2020) :
 Bachia alleni (Barbour, 1914)
 Bachia barbouri Burt &amp; Burt, 1931
 Bachia beebei Murphy, Salvi, Santos, Braswell, Charles, Borzée &amp; Jowers, 2019
@@ -634,7 +652,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1845 : Catalogue of the specimens of lizards in the collection of the British Museum. p. 1-289 (texte intégral).
 Castoe, Doan &amp; Parkinson, 2004 : Data partitions and complex models in Bayesian analysis: The phylogeny of gymnophthalmid lizards. Systematic Biology, vol. 53, p. 448–469.</t>
